--- a/results/results_temperature_independent/temp_independent_genes_avg_expression.xlsx
+++ b/results/results_temperature_independent/temp_independent_genes_avg_expression.xlsx
@@ -3773,7 +3773,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>['00071 Fatty acid degradation [PATH:dok00071]', '00592 alpha-Linolenic acid metabolism [PATH:dok00592]', '00280 Valine, leucine and isoleucine degradation [PATH:dok00280]', '00281 Geraniol degradation [PATH:dok00281]', '00362 Benzoate degradation [PATH:dok00362]']</t>
+          <t>['00071 Fatty acid degradation [PATH:dok00071]', '00592 alpha-Linolenic acid metabolism [PATH:dok00592]', '00280 Valine, leucine and isoleucine degradation [PATH:dok00280]', '00907 Pinene, camphor and geraniol degradation [PATH:dok00907]', '00362 Benzoate degradation [PATH:dok00362]']</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
